--- a/PdPDM/PdPDM_ImportPhysicalDiagrams.xlsx
+++ b/PdPDM/PdPDM_ImportPhysicalDiagrams.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="70">
   <si>
     <t>CRUD</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,69 +52,6 @@
     <t>01.04 当事人－公司分类类型</t>
   </si>
   <si>
-    <t>01.05 当事人－组</t>
-  </si>
-  <si>
-    <t>01.06 当事人－名称</t>
-  </si>
-  <si>
-    <t>01.07 当事人－个人</t>
-  </si>
-  <si>
-    <t>01.08 当事人－家庭</t>
-  </si>
-  <si>
-    <t>01.09 当事人－信用报告</t>
-  </si>
-  <si>
-    <t>01.10 当事人－认证和制裁</t>
-  </si>
-  <si>
-    <t>01.11 当事人－法律信息</t>
-  </si>
-  <si>
-    <t>01.12 当事人－财务报告</t>
-  </si>
-  <si>
-    <t>01.13 当事人－鉴别</t>
-  </si>
-  <si>
-    <t>01.14 当事人－摘要</t>
-  </si>
-  <si>
-    <t>01.15 当事人－人力资源管理－人力资源－员工</t>
-  </si>
-  <si>
-    <t>01.16 当事人－人力资源管理－人力资源－机构</t>
-  </si>
-  <si>
-    <t>01.17 当事人－人力资源管理－人力资源－劳工</t>
-  </si>
-  <si>
-    <t>01.18 当事人－人力资源管理－福利－员工</t>
-  </si>
-  <si>
-    <t>01.19 当事人－人力资源管理－福利－机构</t>
-  </si>
-  <si>
-    <t>01.20 当事人－人力资源管理－工资－员工扣除</t>
-  </si>
-  <si>
-    <t>01.21 当事人－人力资源管理－工资－员工收入</t>
-  </si>
-  <si>
-    <t>01.22 当事人－人力资源管理－工资－支付</t>
-  </si>
-  <si>
-    <t>01.23 当事人－人力资源管理－工资－会计</t>
-  </si>
-  <si>
-    <t>01.24 当事人－人力资源管理－培训管理</t>
-  </si>
-  <si>
-    <t>01.25 当事人－人力资源管理－人力分配</t>
-  </si>
-  <si>
     <t>02.01 当事人资产主题</t>
   </si>
   <si>
@@ -145,30 +82,6 @@
     <t>03.05 产品－组和包</t>
   </si>
   <si>
-    <t>03.06 产品－当事人</t>
-  </si>
-  <si>
-    <t>03.07 产品－特征关系</t>
-  </si>
-  <si>
-    <t>03.08 产品－特征类型</t>
-  </si>
-  <si>
-    <t>03.09 产品－收益率曲线</t>
-  </si>
-  <si>
-    <t>03.10 产品－适用性－一般方法</t>
-  </si>
-  <si>
-    <t>03.11 产品－适用性－人口统计和职业</t>
-  </si>
-  <si>
-    <t>03.12 产品－适用性－地址和活动</t>
-  </si>
-  <si>
-    <t>03.13 产品－适应性－评分和信用评级</t>
-  </si>
-  <si>
     <t>04.01 协议主题</t>
   </si>
   <si>
@@ -182,42 +95,6 @@
   </si>
   <si>
     <t>04.05 协议－分类和分组</t>
-  </si>
-  <si>
-    <t>04.06 协议－关系和历史</t>
-  </si>
-  <si>
-    <t>04.07 协议－账户价值</t>
-  </si>
-  <si>
-    <t>04.08 协议－申请</t>
-  </si>
-  <si>
-    <t>04.09 协议－报价</t>
-  </si>
-  <si>
-    <t>04.10 协议－账户卡</t>
-  </si>
-  <si>
-    <t>04.11 协议－托收、违约、回收</t>
-  </si>
-  <si>
-    <t>04.12 协议－外部协议</t>
-  </si>
-  <si>
-    <t>04.13 协议－积分回馈</t>
-  </si>
-  <si>
-    <t>04.14 协议－账单</t>
-  </si>
-  <si>
-    <t>04.15 协议－法律诉讼</t>
-  </si>
-  <si>
-    <t>04.16 协议－摘要</t>
-  </si>
-  <si>
-    <t>04.17 协议－现金流预测</t>
   </si>
   <si>
     <t>05.01 内部机构主题</t>
@@ -247,33 +124,6 @@
     <t>06.05 事件－催收和回收事件</t>
   </si>
   <si>
-    <t>06.06 事件－整合网络事件</t>
-  </si>
-  <si>
-    <t>06.07 事件－网络会话</t>
-  </si>
-  <si>
-    <t>06.08 事件－网络访问</t>
-  </si>
-  <si>
-    <t>06.09 事件－网络搜索</t>
-  </si>
-  <si>
-    <t>06.10 事件－网络浏览器</t>
-  </si>
-  <si>
-    <t>06.11 事件－网络站点推介</t>
-  </si>
-  <si>
-    <t>06.12 事件－呼叫中心接触</t>
-  </si>
-  <si>
-    <t>06.13 事件－互动语音应答指引</t>
-  </si>
-  <si>
-    <t>06.14 事件－案例</t>
-  </si>
-  <si>
     <t>07.01 地域主题</t>
   </si>
   <si>
@@ -287,12 +137,6 @@
   </si>
   <si>
     <t>07.05 地域－地理区域－普通</t>
-  </si>
-  <si>
-    <t>07.06 地域－地理区域－特定</t>
-  </si>
-  <si>
-    <t>07.07 地域－地理区域－日本</t>
   </si>
   <si>
     <t>08.01 营销活动主题</t>
@@ -310,51 +154,6 @@
     <t>08.05 营销活动－营销活动销售渠道</t>
   </si>
   <si>
-    <t>08.06 营销活动－营销活动策略</t>
-  </si>
-  <si>
-    <t>08.07 营销活动－托收和回收策略</t>
-  </si>
-  <si>
-    <t>08.08 营销活动－目标营销细分</t>
-  </si>
-  <si>
-    <t>08.09 营销活动－营销活动提议</t>
-  </si>
-  <si>
-    <t>08.10 营销活动－广告营销</t>
-  </si>
-  <si>
-    <t>08.11 营销活动－广告放置</t>
-  </si>
-  <si>
-    <t>08.12 营销活动－广告订单</t>
-  </si>
-  <si>
-    <t>08.13 营销活动－广告效益</t>
-  </si>
-  <si>
-    <t>08.14 营销活动－电视广告渠道</t>
-  </si>
-  <si>
-    <t>08.15 营销活动－沟通抵押品</t>
-  </si>
-  <si>
-    <t>08.16 营销活动－多媒体对象</t>
-  </si>
-  <si>
-    <t>08.17 营销活动－机会</t>
-  </si>
-  <si>
-    <t>08.18 营销活动－提案</t>
-  </si>
-  <si>
-    <t>08.19 营销活动－步骤</t>
-  </si>
-  <si>
-    <t>08.20 营销活动－后续活动</t>
-  </si>
-  <si>
     <t>09.01 渠道主题</t>
   </si>
   <si>
@@ -368,15 +167,6 @@
   </si>
   <si>
     <t>09.05 渠道－网络运营</t>
-  </si>
-  <si>
-    <t>09.06 渠道－网络站点</t>
-  </si>
-  <si>
-    <t>09.07 渠道－网络渠道</t>
-  </si>
-  <si>
-    <t>09.08 渠道－分类</t>
   </si>
   <si>
     <t>10.01 财务主题</t>
@@ -394,75 +184,6 @@
     <t>10.05 财务管理－AR发票</t>
   </si>
   <si>
-    <t>10.06 财务管理－AR支付和托收</t>
-  </si>
-  <si>
-    <t>10.07 财务管理－FA固定资产</t>
-  </si>
-  <si>
-    <t>10.08 财务管理－GL和协议</t>
-  </si>
-  <si>
-    <t>10.09 财务管理－GL和成本,税收</t>
-  </si>
-  <si>
-    <t>10.10 财务管理－GL和财务事件</t>
-  </si>
-  <si>
-    <t>10.11 财务管理－GL资产账户</t>
-  </si>
-  <si>
-    <t>10.12 财务管理－GL账户余额表</t>
-  </si>
-  <si>
-    <t>10.13 财务管理－GL权益账户</t>
-  </si>
-  <si>
-    <t>10.14 财务管理－GL费用账户</t>
-  </si>
-  <si>
-    <t>10.15 财务管理－GL总分类账</t>
-  </si>
-  <si>
-    <t>10.16 财务管理－GL日记账分录</t>
-  </si>
-  <si>
-    <t>10.17 财务管理－GL负债账户</t>
-  </si>
-  <si>
-    <t>10.18 财务管理－GL产品细分</t>
-  </si>
-  <si>
-    <t>10.19 财务管理－GL项目细分</t>
-  </si>
-  <si>
-    <t>10.20 财务管理－GL营业收入账户</t>
-  </si>
-  <si>
-    <t>10.21 财务管理－GL子账户</t>
-  </si>
-  <si>
-    <t>10.22 财务管理－PA项目</t>
-  </si>
-  <si>
-    <t>10.23 财务管理－PA项目资源</t>
-  </si>
-  <si>
-    <t>10.24 财务管理－PO采购</t>
-  </si>
-  <si>
-    <t>10.25 财务管理－PO采购收据</t>
-  </si>
-  <si>
-    <t>10.26 财务管理－PO采购退货</t>
-  </si>
-  <si>
-    <t>10.27 财务管理－商务决策</t>
-  </si>
-  <si>
-    <t>10.28 财务管理－财务治理</t>
-  </si>
-  <si>
     <t>11.01 交叉主题－分析模型</t>
   </si>
   <si>
@@ -476,42 +197,6 @@
   </si>
   <si>
     <t>11.05 交叉主题－货币数据</t>
-  </si>
-  <si>
-    <t>11.06 交叉主题－人口统计数据</t>
-  </si>
-  <si>
-    <t>11.07 交叉主题－文档</t>
-  </si>
-  <si>
-    <t>11.08 交叉主题－保密数据</t>
-  </si>
-  <si>
-    <t>11.09 交叉主题－盈利数据</t>
-  </si>
-  <si>
-    <t>11.10 交叉主题－税收数据</t>
-  </si>
-  <si>
-    <t>11.11 交叉主题－风险等级</t>
-  </si>
-  <si>
-    <t>11.12 交叉主题－风险等级关系</t>
-  </si>
-  <si>
-    <t>11.13 交叉主题－评分数据</t>
-  </si>
-  <si>
-    <t>11.14 交叉主题－主题</t>
-  </si>
-  <si>
-    <t>11.15 交叉主题－调查数据</t>
-  </si>
-  <si>
-    <t>11.16 交叉主题－非结构文本</t>
-  </si>
-  <si>
-    <t>11.17 交叉主题－监视清单</t>
   </si>
   <si>
     <t>01.当事人域</t>
@@ -746,7 +431,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:E159" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:E54" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <tableColumns count="5">
     <tableColumn id="1" name="CRUD" dataDxfId="4"/>
     <tableColumn id="5" name="Parent" dataDxfId="3"/>
@@ -1045,9 +730,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1346"/>
+  <dimension ref="A1:E1241"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1081,7 +768,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>164</v>
+        <v>59</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>
@@ -1095,7 +782,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>164</v>
+        <v>59</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -1109,7 +796,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>164</v>
+        <v>59</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
@@ -1123,7 +810,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>164</v>
+        <v>59</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -1137,12 +824,12 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>164</v>
+        <v>60</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1151,12 +838,12 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1165,12 +852,12 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1179,12 +866,12 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1193,12 +880,12 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1207,12 +894,12 @@
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1221,12 +908,12 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1235,7 +922,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>164</v>
+        <v>61</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>17</v>
@@ -1249,7 +936,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>164</v>
+        <v>61</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>18</v>
@@ -1263,7 +950,7 @@
         <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>164</v>
+        <v>61</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>19</v>
@@ -1277,7 +964,7 @@
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>164</v>
+        <v>62</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>20</v>
@@ -1291,7 +978,7 @@
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>164</v>
+        <v>62</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>21</v>
@@ -1305,7 +992,7 @@
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>164</v>
+        <v>62</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>22</v>
@@ -1319,7 +1006,7 @@
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>164</v>
+        <v>62</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>23</v>
@@ -1333,7 +1020,7 @@
         <v>5</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>164</v>
+        <v>62</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>24</v>
@@ -1347,7 +1034,7 @@
         <v>5</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>164</v>
+        <v>63</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>25</v>
@@ -1361,7 +1048,7 @@
         <v>5</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>164</v>
+        <v>63</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>26</v>
@@ -1375,7 +1062,7 @@
         <v>5</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>164</v>
+        <v>63</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>27</v>
@@ -1389,7 +1076,7 @@
         <v>5</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>164</v>
+        <v>63</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>28</v>
@@ -1403,7 +1090,7 @@
         <v>5</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>164</v>
+        <v>64</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>29</v>
@@ -1417,7 +1104,7 @@
         <v>5</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>164</v>
+        <v>64</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>30</v>
@@ -1431,7 +1118,7 @@
         <v>5</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>165</v>
+        <v>64</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>31</v>
@@ -1445,7 +1132,7 @@
         <v>5</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>165</v>
+        <v>64</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>32</v>
@@ -1459,7 +1146,7 @@
         <v>5</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>165</v>
+        <v>64</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>33</v>
@@ -1473,7 +1160,7 @@
         <v>5</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>165</v>
+        <v>65</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>34</v>
@@ -1487,7 +1174,7 @@
         <v>5</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>165</v>
+        <v>65</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>35</v>
@@ -1501,7 +1188,7 @@
         <v>5</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>166</v>
+        <v>65</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>36</v>
@@ -1515,7 +1202,7 @@
         <v>5</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>166</v>
+        <v>65</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>37</v>
@@ -1529,7 +1216,7 @@
         <v>5</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>166</v>
+        <v>65</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>38</v>
@@ -1543,7 +1230,7 @@
         <v>5</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>166</v>
+        <v>66</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>39</v>
@@ -1557,7 +1244,7 @@
         <v>5</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>166</v>
+        <v>66</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>40</v>
@@ -1571,7 +1258,7 @@
         <v>5</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>166</v>
+        <v>66</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>41</v>
@@ -1585,7 +1272,7 @@
         <v>5</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>166</v>
+        <v>66</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>42</v>
@@ -1599,7 +1286,7 @@
         <v>5</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>166</v>
+        <v>66</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>43</v>
@@ -1613,7 +1300,7 @@
         <v>5</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>166</v>
+        <v>67</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>44</v>
@@ -1627,7 +1314,7 @@
         <v>5</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>166</v>
+        <v>67</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>45</v>
@@ -1641,7 +1328,7 @@
         <v>5</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>166</v>
+        <v>67</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>46</v>
@@ -1655,7 +1342,7 @@
         <v>5</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>166</v>
+        <v>67</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>47</v>
@@ -1669,7 +1356,7 @@
         <v>5</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>166</v>
+        <v>67</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>48</v>
@@ -1683,7 +1370,7 @@
         <v>5</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>167</v>
+        <v>68</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>49</v>
@@ -1697,7 +1384,7 @@
         <v>5</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>167</v>
+        <v>68</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>50</v>
@@ -1711,7 +1398,7 @@
         <v>5</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>167</v>
+        <v>68</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>51</v>
@@ -1725,7 +1412,7 @@
         <v>5</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>167</v>
+        <v>68</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>52</v>
@@ -1734,12 +1421,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>167</v>
+        <v>68</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>53</v>
@@ -1748,12 +1435,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>167</v>
+        <v>69</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>54</v>
@@ -1762,12 +1449,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>167</v>
+        <v>69</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>55</v>
@@ -1776,12 +1463,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>167</v>
+        <v>69</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>56</v>
@@ -1790,12 +1477,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>167</v>
+        <v>69</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>57</v>
@@ -1804,12 +1491,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>167</v>
+        <v>69</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>58</v>
@@ -1818,1475 +1505,740 @@
         <v>58</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A87" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A88" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A89" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A90" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A91" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A92" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A93" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A94" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A95" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A96" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D96" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A97" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D97" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A98" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A99" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D99" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A100" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D100" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A101" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A102" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D102" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A103" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D103" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A104" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D104" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A105" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D105" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A106" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D106" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A107" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D107" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A108" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D108" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A109" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D109" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A110" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D110" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A111" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D111" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A112" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D112" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A113" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D113" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A114" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C114" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D114" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A115" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D115" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A116" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C116" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D116" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A117" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C117" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D117" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A118" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C118" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D118" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A119" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C119" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D119" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A120" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D120" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A121" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D121" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A122" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C122" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="D122" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A123" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C123" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D123" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A124" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D124" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A125" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C125" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="D125" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A126" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C126" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="D126" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A127" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C127" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="D127" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A128" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C128" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D128" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A129" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C129" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="D129" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A130" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C130" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D130" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A131" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C131" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D131" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A132" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="D132" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A133" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C133" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D133" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A134" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C134" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="D134" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A135" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C135" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D135" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A136" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C136" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D136" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A137" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C137" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="D137" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A138" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C138" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="D138" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A139" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C139" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D139" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A140" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D140" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A141" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C141" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D141" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A142" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C142" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D142" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A143" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C143" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D143" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A144" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C144" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="D144" s="3" t="s">
-        <v>148</v>
-      </c>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55"/>
+      <c r="B55"/>
+      <c r="C55"/>
+      <c r="D55"/>
+      <c r="E55"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56"/>
+      <c r="B56"/>
+      <c r="C56"/>
+      <c r="D56"/>
+      <c r="E56"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57"/>
+      <c r="B57"/>
+      <c r="C57"/>
+      <c r="D57"/>
+      <c r="E57"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58"/>
+      <c r="B58"/>
+      <c r="C58"/>
+      <c r="D58"/>
+      <c r="E58"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59"/>
+      <c r="B59"/>
+      <c r="C59"/>
+      <c r="D59"/>
+      <c r="E59"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60"/>
+      <c r="B60"/>
+      <c r="C60"/>
+      <c r="D60"/>
+      <c r="E60"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61"/>
+      <c r="B61"/>
+      <c r="C61"/>
+      <c r="D61"/>
+      <c r="E61"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62"/>
+      <c r="B62"/>
+      <c r="C62"/>
+      <c r="D62"/>
+      <c r="E62"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63"/>
+      <c r="B63"/>
+      <c r="C63"/>
+      <c r="D63"/>
+      <c r="E63"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64"/>
+      <c r="B64"/>
+      <c r="C64"/>
+      <c r="D64"/>
+      <c r="E64"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65"/>
+      <c r="B65"/>
+      <c r="C65"/>
+      <c r="D65"/>
+      <c r="E65"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66"/>
+      <c r="B66"/>
+      <c r="C66"/>
+      <c r="D66"/>
+      <c r="E66"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67"/>
+      <c r="B67"/>
+      <c r="C67"/>
+      <c r="D67"/>
+      <c r="E67"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68"/>
+      <c r="B68"/>
+      <c r="C68"/>
+      <c r="D68"/>
+      <c r="E68"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69"/>
+      <c r="B69"/>
+      <c r="C69"/>
+      <c r="D69"/>
+      <c r="E69"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70"/>
+      <c r="B70"/>
+      <c r="C70"/>
+      <c r="D70"/>
+      <c r="E70"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71"/>
+      <c r="B71"/>
+      <c r="C71"/>
+      <c r="D71"/>
+      <c r="E71"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72"/>
+      <c r="B72"/>
+      <c r="C72"/>
+      <c r="D72"/>
+      <c r="E72"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73"/>
+      <c r="B73"/>
+      <c r="C73"/>
+      <c r="D73"/>
+      <c r="E73"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74"/>
+      <c r="B74"/>
+      <c r="C74"/>
+      <c r="D74"/>
+      <c r="E74"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75"/>
+      <c r="B75"/>
+      <c r="C75"/>
+      <c r="D75"/>
+      <c r="E75"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76"/>
+      <c r="B76"/>
+      <c r="C76"/>
+      <c r="D76"/>
+      <c r="E76"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77"/>
+      <c r="B77"/>
+      <c r="C77"/>
+      <c r="D77"/>
+      <c r="E77"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78"/>
+      <c r="B78"/>
+      <c r="C78"/>
+      <c r="D78"/>
+      <c r="E78"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79"/>
+      <c r="B79"/>
+      <c r="C79"/>
+      <c r="D79"/>
+      <c r="E79"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80"/>
+      <c r="B80"/>
+      <c r="C80"/>
+      <c r="D80"/>
+      <c r="E80"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81"/>
+      <c r="B81"/>
+      <c r="C81"/>
+      <c r="D81"/>
+      <c r="E81"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82"/>
+      <c r="B82"/>
+      <c r="C82"/>
+      <c r="D82"/>
+      <c r="E82"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83"/>
+      <c r="B83"/>
+      <c r="C83"/>
+      <c r="D83"/>
+      <c r="E83"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84"/>
+      <c r="B84"/>
+      <c r="C84"/>
+      <c r="D84"/>
+      <c r="E84"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85"/>
+      <c r="B85"/>
+      <c r="C85"/>
+      <c r="D85"/>
+      <c r="E85"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86"/>
+      <c r="B86"/>
+      <c r="C86"/>
+      <c r="D86"/>
+      <c r="E86"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87"/>
+      <c r="B87"/>
+      <c r="C87"/>
+      <c r="D87"/>
+      <c r="E87"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88"/>
+      <c r="B88"/>
+      <c r="C88"/>
+      <c r="D88"/>
+      <c r="E88"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89"/>
+      <c r="B89"/>
+      <c r="C89"/>
+      <c r="D89"/>
+      <c r="E89"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90"/>
+      <c r="B90"/>
+      <c r="C90"/>
+      <c r="D90"/>
+      <c r="E90"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91"/>
+      <c r="B91"/>
+      <c r="C91"/>
+      <c r="D91"/>
+      <c r="E91"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92"/>
+      <c r="B92"/>
+      <c r="C92"/>
+      <c r="D92"/>
+      <c r="E92"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93"/>
+      <c r="B93"/>
+      <c r="C93"/>
+      <c r="D93"/>
+      <c r="E93"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94"/>
+      <c r="B94"/>
+      <c r="C94"/>
+      <c r="D94"/>
+      <c r="E94"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95"/>
+      <c r="B95"/>
+      <c r="C95"/>
+      <c r="D95"/>
+      <c r="E95"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96"/>
+      <c r="B96"/>
+      <c r="C96"/>
+      <c r="D96"/>
+      <c r="E96"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97"/>
+      <c r="B97"/>
+      <c r="C97"/>
+      <c r="D97"/>
+      <c r="E97"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98"/>
+      <c r="B98"/>
+      <c r="C98"/>
+      <c r="D98"/>
+      <c r="E98"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99"/>
+      <c r="B99"/>
+      <c r="C99"/>
+      <c r="D99"/>
+      <c r="E99"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100"/>
+      <c r="B100"/>
+      <c r="C100"/>
+      <c r="D100"/>
+      <c r="E100"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101"/>
+      <c r="B101"/>
+      <c r="C101"/>
+      <c r="D101"/>
+      <c r="E101"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102"/>
+      <c r="B102"/>
+      <c r="C102"/>
+      <c r="D102"/>
+      <c r="E102"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103"/>
+      <c r="B103"/>
+      <c r="C103"/>
+      <c r="D103"/>
+      <c r="E103"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104"/>
+      <c r="B104"/>
+      <c r="C104"/>
+      <c r="D104"/>
+      <c r="E104"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105"/>
+      <c r="B105"/>
+      <c r="C105"/>
+      <c r="D105"/>
+      <c r="E105"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106"/>
+      <c r="B106"/>
+      <c r="C106"/>
+      <c r="D106"/>
+      <c r="E106"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107"/>
+      <c r="B107"/>
+      <c r="C107"/>
+      <c r="D107"/>
+      <c r="E107"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108"/>
+      <c r="B108"/>
+      <c r="C108"/>
+      <c r="D108"/>
+      <c r="E108"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109"/>
+      <c r="B109"/>
+      <c r="C109"/>
+      <c r="D109"/>
+      <c r="E109"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110"/>
+      <c r="B110"/>
+      <c r="C110"/>
+      <c r="D110"/>
+      <c r="E110"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111"/>
+      <c r="B111"/>
+      <c r="C111"/>
+      <c r="D111"/>
+      <c r="E111"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112"/>
+      <c r="B112"/>
+      <c r="C112"/>
+      <c r="D112"/>
+      <c r="E112"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113"/>
+      <c r="B113"/>
+      <c r="C113"/>
+      <c r="D113"/>
+      <c r="E113"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114"/>
+      <c r="B114"/>
+      <c r="C114"/>
+      <c r="D114"/>
+      <c r="E114"/>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115"/>
+      <c r="B115"/>
+      <c r="C115"/>
+      <c r="D115"/>
+      <c r="E115"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116"/>
+      <c r="B116"/>
+      <c r="C116"/>
+      <c r="D116"/>
+      <c r="E116"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117"/>
+      <c r="B117"/>
+      <c r="C117"/>
+      <c r="D117"/>
+      <c r="E117"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118"/>
+      <c r="B118"/>
+      <c r="C118"/>
+      <c r="D118"/>
+      <c r="E118"/>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119"/>
+      <c r="B119"/>
+      <c r="C119"/>
+      <c r="D119"/>
+      <c r="E119"/>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120"/>
+      <c r="B120"/>
+      <c r="C120"/>
+      <c r="D120"/>
+      <c r="E120"/>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121"/>
+      <c r="B121"/>
+      <c r="C121"/>
+      <c r="D121"/>
+      <c r="E121"/>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122"/>
+      <c r="B122"/>
+      <c r="C122"/>
+      <c r="D122"/>
+      <c r="E122"/>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123"/>
+      <c r="B123"/>
+      <c r="C123"/>
+      <c r="D123"/>
+      <c r="E123"/>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124"/>
+      <c r="B124"/>
+      <c r="C124"/>
+      <c r="D124"/>
+      <c r="E124"/>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125"/>
+      <c r="B125"/>
+      <c r="C125"/>
+      <c r="D125"/>
+      <c r="E125"/>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126"/>
+      <c r="B126"/>
+      <c r="C126"/>
+      <c r="D126"/>
+      <c r="E126"/>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127"/>
+      <c r="B127"/>
+      <c r="C127"/>
+      <c r="D127"/>
+      <c r="E127"/>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128"/>
+      <c r="B128"/>
+      <c r="C128"/>
+      <c r="D128"/>
+      <c r="E128"/>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129"/>
+      <c r="B129"/>
+      <c r="C129"/>
+      <c r="D129"/>
+      <c r="E129"/>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130"/>
+      <c r="B130"/>
+      <c r="C130"/>
+      <c r="D130"/>
+      <c r="E130"/>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131"/>
+      <c r="B131"/>
+      <c r="C131"/>
+      <c r="D131"/>
+      <c r="E131"/>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132"/>
+      <c r="B132"/>
+      <c r="C132"/>
+      <c r="D132"/>
+      <c r="E132"/>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133"/>
+      <c r="B133"/>
+      <c r="C133"/>
+      <c r="D133"/>
+      <c r="E133"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134"/>
+      <c r="B134"/>
+      <c r="C134"/>
+      <c r="D134"/>
+      <c r="E134"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135"/>
+      <c r="B135"/>
+      <c r="C135"/>
+      <c r="D135"/>
+      <c r="E135"/>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136"/>
+      <c r="B136"/>
+      <c r="C136"/>
+      <c r="D136"/>
+      <c r="E136"/>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137"/>
+      <c r="B137"/>
+      <c r="C137"/>
+      <c r="D137"/>
+      <c r="E137"/>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138"/>
+      <c r="B138"/>
+      <c r="C138"/>
+      <c r="D138"/>
+      <c r="E138"/>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139"/>
+      <c r="B139"/>
+      <c r="C139"/>
+      <c r="D139"/>
+      <c r="E139"/>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A140"/>
+      <c r="B140"/>
+      <c r="C140"/>
+      <c r="D140"/>
+      <c r="E140"/>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141"/>
+      <c r="B141"/>
+      <c r="C141"/>
+      <c r="D141"/>
+      <c r="E141"/>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A142"/>
+      <c r="B142"/>
+      <c r="C142"/>
+      <c r="D142"/>
+      <c r="E142"/>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A143"/>
+      <c r="B143"/>
+      <c r="C143"/>
+      <c r="D143"/>
+      <c r="E143"/>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A144"/>
+      <c r="B144"/>
+      <c r="C144"/>
+      <c r="D144"/>
+      <c r="E144"/>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A145" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C145" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="D145" s="3" t="s">
-        <v>149</v>
-      </c>
+      <c r="A145"/>
+      <c r="B145"/>
+      <c r="C145"/>
+      <c r="D145"/>
+      <c r="E145"/>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A146" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C146" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="D146" s="3" t="s">
-        <v>150</v>
-      </c>
+      <c r="A146"/>
+      <c r="B146"/>
+      <c r="C146"/>
+      <c r="D146"/>
+      <c r="E146"/>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A147" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C147" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="D147" s="3" t="s">
-        <v>151</v>
-      </c>
+      <c r="A147"/>
+      <c r="B147"/>
+      <c r="C147"/>
+      <c r="D147"/>
+      <c r="E147"/>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A148" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C148" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="D148" s="3" t="s">
-        <v>152</v>
-      </c>
+      <c r="A148"/>
+      <c r="B148"/>
+      <c r="C148"/>
+      <c r="D148"/>
+      <c r="E148"/>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A149" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C149" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="D149" s="3" t="s">
-        <v>153</v>
-      </c>
+      <c r="A149"/>
+      <c r="B149"/>
+      <c r="C149"/>
+      <c r="D149"/>
+      <c r="E149"/>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A150" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C150" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="D150" s="3" t="s">
-        <v>154</v>
-      </c>
+      <c r="A150"/>
+      <c r="B150"/>
+      <c r="C150"/>
+      <c r="D150"/>
+      <c r="E150"/>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A151" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C151" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="D151" s="3" t="s">
-        <v>155</v>
-      </c>
+      <c r="A151"/>
+      <c r="B151"/>
+      <c r="C151"/>
+      <c r="D151"/>
+      <c r="E151"/>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A152" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C152" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="D152" s="3" t="s">
-        <v>156</v>
-      </c>
+      <c r="A152"/>
+      <c r="B152"/>
+      <c r="C152"/>
+      <c r="D152"/>
+      <c r="E152"/>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A153" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C153" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="D153" s="3" t="s">
-        <v>157</v>
-      </c>
+      <c r="A153"/>
+      <c r="B153"/>
+      <c r="C153"/>
+      <c r="D153"/>
+      <c r="E153"/>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A154" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C154" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D154" s="3" t="s">
-        <v>158</v>
-      </c>
+      <c r="A154"/>
+      <c r="B154"/>
+      <c r="C154"/>
+      <c r="D154"/>
+      <c r="E154"/>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A155" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C155" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="D155" s="3" t="s">
-        <v>159</v>
-      </c>
+      <c r="A155"/>
+      <c r="B155"/>
+      <c r="C155"/>
+      <c r="D155"/>
+      <c r="E155"/>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A156" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C156" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D156" s="3" t="s">
-        <v>160</v>
-      </c>
+      <c r="A156"/>
+      <c r="B156"/>
+      <c r="C156"/>
+      <c r="D156"/>
+      <c r="E156"/>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A157" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C157" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="D157" s="3" t="s">
-        <v>161</v>
-      </c>
+      <c r="A157"/>
+      <c r="B157"/>
+      <c r="C157"/>
+      <c r="D157"/>
+      <c r="E157"/>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A158" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C158" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="D158" s="3" t="s">
-        <v>162</v>
-      </c>
+      <c r="A158"/>
+      <c r="B158"/>
+      <c r="C158"/>
+      <c r="D158"/>
+      <c r="E158"/>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A159" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C159" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="D159" s="3" t="s">
-        <v>163</v>
-      </c>
+      <c r="A159"/>
+      <c r="B159"/>
+      <c r="C159"/>
+      <c r="D159"/>
+      <c r="E159"/>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160"/>
@@ -10861,741 +9813,6 @@
       <c r="C1241"/>
       <c r="D1241"/>
       <c r="E1241"/>
-    </row>
-    <row r="1242" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1242"/>
-      <c r="B1242"/>
-      <c r="C1242"/>
-      <c r="D1242"/>
-      <c r="E1242"/>
-    </row>
-    <row r="1243" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1243"/>
-      <c r="B1243"/>
-      <c r="C1243"/>
-      <c r="D1243"/>
-      <c r="E1243"/>
-    </row>
-    <row r="1244" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1244"/>
-      <c r="B1244"/>
-      <c r="C1244"/>
-      <c r="D1244"/>
-      <c r="E1244"/>
-    </row>
-    <row r="1245" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1245"/>
-      <c r="B1245"/>
-      <c r="C1245"/>
-      <c r="D1245"/>
-      <c r="E1245"/>
-    </row>
-    <row r="1246" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1246"/>
-      <c r="B1246"/>
-      <c r="C1246"/>
-      <c r="D1246"/>
-      <c r="E1246"/>
-    </row>
-    <row r="1247" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1247"/>
-      <c r="B1247"/>
-      <c r="C1247"/>
-      <c r="D1247"/>
-      <c r="E1247"/>
-    </row>
-    <row r="1248" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1248"/>
-      <c r="B1248"/>
-      <c r="C1248"/>
-      <c r="D1248"/>
-      <c r="E1248"/>
-    </row>
-    <row r="1249" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1249"/>
-      <c r="B1249"/>
-      <c r="C1249"/>
-      <c r="D1249"/>
-      <c r="E1249"/>
-    </row>
-    <row r="1250" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1250"/>
-      <c r="B1250"/>
-      <c r="C1250"/>
-      <c r="D1250"/>
-      <c r="E1250"/>
-    </row>
-    <row r="1251" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1251"/>
-      <c r="B1251"/>
-      <c r="C1251"/>
-      <c r="D1251"/>
-      <c r="E1251"/>
-    </row>
-    <row r="1252" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1252"/>
-      <c r="B1252"/>
-      <c r="C1252"/>
-      <c r="D1252"/>
-      <c r="E1252"/>
-    </row>
-    <row r="1253" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1253"/>
-      <c r="B1253"/>
-      <c r="C1253"/>
-      <c r="D1253"/>
-      <c r="E1253"/>
-    </row>
-    <row r="1254" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1254"/>
-      <c r="B1254"/>
-      <c r="C1254"/>
-      <c r="D1254"/>
-      <c r="E1254"/>
-    </row>
-    <row r="1255" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1255"/>
-      <c r="B1255"/>
-      <c r="C1255"/>
-      <c r="D1255"/>
-      <c r="E1255"/>
-    </row>
-    <row r="1256" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1256"/>
-      <c r="B1256"/>
-      <c r="C1256"/>
-      <c r="D1256"/>
-      <c r="E1256"/>
-    </row>
-    <row r="1257" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1257"/>
-      <c r="B1257"/>
-      <c r="C1257"/>
-      <c r="D1257"/>
-      <c r="E1257"/>
-    </row>
-    <row r="1258" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1258"/>
-      <c r="B1258"/>
-      <c r="C1258"/>
-      <c r="D1258"/>
-      <c r="E1258"/>
-    </row>
-    <row r="1259" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1259"/>
-      <c r="B1259"/>
-      <c r="C1259"/>
-      <c r="D1259"/>
-      <c r="E1259"/>
-    </row>
-    <row r="1260" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1260"/>
-      <c r="B1260"/>
-      <c r="C1260"/>
-      <c r="D1260"/>
-      <c r="E1260"/>
-    </row>
-    <row r="1261" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1261"/>
-      <c r="B1261"/>
-      <c r="C1261"/>
-      <c r="D1261"/>
-      <c r="E1261"/>
-    </row>
-    <row r="1262" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1262"/>
-      <c r="B1262"/>
-      <c r="C1262"/>
-      <c r="D1262"/>
-      <c r="E1262"/>
-    </row>
-    <row r="1263" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1263"/>
-      <c r="B1263"/>
-      <c r="C1263"/>
-      <c r="D1263"/>
-      <c r="E1263"/>
-    </row>
-    <row r="1264" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1264"/>
-      <c r="B1264"/>
-      <c r="C1264"/>
-      <c r="D1264"/>
-      <c r="E1264"/>
-    </row>
-    <row r="1265" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1265"/>
-      <c r="B1265"/>
-      <c r="C1265"/>
-      <c r="D1265"/>
-      <c r="E1265"/>
-    </row>
-    <row r="1266" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1266"/>
-      <c r="B1266"/>
-      <c r="C1266"/>
-      <c r="D1266"/>
-      <c r="E1266"/>
-    </row>
-    <row r="1267" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1267"/>
-      <c r="B1267"/>
-      <c r="C1267"/>
-      <c r="D1267"/>
-      <c r="E1267"/>
-    </row>
-    <row r="1268" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1268"/>
-      <c r="B1268"/>
-      <c r="C1268"/>
-      <c r="D1268"/>
-      <c r="E1268"/>
-    </row>
-    <row r="1269" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1269"/>
-      <c r="B1269"/>
-      <c r="C1269"/>
-      <c r="D1269"/>
-      <c r="E1269"/>
-    </row>
-    <row r="1270" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1270"/>
-      <c r="B1270"/>
-      <c r="C1270"/>
-      <c r="D1270"/>
-      <c r="E1270"/>
-    </row>
-    <row r="1271" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1271"/>
-      <c r="B1271"/>
-      <c r="C1271"/>
-      <c r="D1271"/>
-      <c r="E1271"/>
-    </row>
-    <row r="1272" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1272"/>
-      <c r="B1272"/>
-      <c r="C1272"/>
-      <c r="D1272"/>
-      <c r="E1272"/>
-    </row>
-    <row r="1273" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1273"/>
-      <c r="B1273"/>
-      <c r="C1273"/>
-      <c r="D1273"/>
-      <c r="E1273"/>
-    </row>
-    <row r="1274" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1274"/>
-      <c r="B1274"/>
-      <c r="C1274"/>
-      <c r="D1274"/>
-      <c r="E1274"/>
-    </row>
-    <row r="1275" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1275"/>
-      <c r="B1275"/>
-      <c r="C1275"/>
-      <c r="D1275"/>
-      <c r="E1275"/>
-    </row>
-    <row r="1276" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1276"/>
-      <c r="B1276"/>
-      <c r="C1276"/>
-      <c r="D1276"/>
-      <c r="E1276"/>
-    </row>
-    <row r="1277" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1277"/>
-      <c r="B1277"/>
-      <c r="C1277"/>
-      <c r="D1277"/>
-      <c r="E1277"/>
-    </row>
-    <row r="1278" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1278"/>
-      <c r="B1278"/>
-      <c r="C1278"/>
-      <c r="D1278"/>
-      <c r="E1278"/>
-    </row>
-    <row r="1279" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1279"/>
-      <c r="B1279"/>
-      <c r="C1279"/>
-      <c r="D1279"/>
-      <c r="E1279"/>
-    </row>
-    <row r="1280" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1280"/>
-      <c r="B1280"/>
-      <c r="C1280"/>
-      <c r="D1280"/>
-      <c r="E1280"/>
-    </row>
-    <row r="1281" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1281"/>
-      <c r="B1281"/>
-      <c r="C1281"/>
-      <c r="D1281"/>
-      <c r="E1281"/>
-    </row>
-    <row r="1282" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1282"/>
-      <c r="B1282"/>
-      <c r="C1282"/>
-      <c r="D1282"/>
-      <c r="E1282"/>
-    </row>
-    <row r="1283" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1283"/>
-      <c r="B1283"/>
-      <c r="C1283"/>
-      <c r="D1283"/>
-      <c r="E1283"/>
-    </row>
-    <row r="1284" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1284"/>
-      <c r="B1284"/>
-      <c r="C1284"/>
-      <c r="D1284"/>
-      <c r="E1284"/>
-    </row>
-    <row r="1285" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1285"/>
-      <c r="B1285"/>
-      <c r="C1285"/>
-      <c r="D1285"/>
-      <c r="E1285"/>
-    </row>
-    <row r="1286" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1286"/>
-      <c r="B1286"/>
-      <c r="C1286"/>
-      <c r="D1286"/>
-      <c r="E1286"/>
-    </row>
-    <row r="1287" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1287"/>
-      <c r="B1287"/>
-      <c r="C1287"/>
-      <c r="D1287"/>
-      <c r="E1287"/>
-    </row>
-    <row r="1288" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1288"/>
-      <c r="B1288"/>
-      <c r="C1288"/>
-      <c r="D1288"/>
-      <c r="E1288"/>
-    </row>
-    <row r="1289" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1289"/>
-      <c r="B1289"/>
-      <c r="C1289"/>
-      <c r="D1289"/>
-      <c r="E1289"/>
-    </row>
-    <row r="1290" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1290"/>
-      <c r="B1290"/>
-      <c r="C1290"/>
-      <c r="D1290"/>
-      <c r="E1290"/>
-    </row>
-    <row r="1291" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1291"/>
-      <c r="B1291"/>
-      <c r="C1291"/>
-      <c r="D1291"/>
-      <c r="E1291"/>
-    </row>
-    <row r="1292" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1292"/>
-      <c r="B1292"/>
-      <c r="C1292"/>
-      <c r="D1292"/>
-      <c r="E1292"/>
-    </row>
-    <row r="1293" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1293"/>
-      <c r="B1293"/>
-      <c r="C1293"/>
-      <c r="D1293"/>
-      <c r="E1293"/>
-    </row>
-    <row r="1294" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1294"/>
-      <c r="B1294"/>
-      <c r="C1294"/>
-      <c r="D1294"/>
-      <c r="E1294"/>
-    </row>
-    <row r="1295" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1295"/>
-      <c r="B1295"/>
-      <c r="C1295"/>
-      <c r="D1295"/>
-      <c r="E1295"/>
-    </row>
-    <row r="1296" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1296"/>
-      <c r="B1296"/>
-      <c r="C1296"/>
-      <c r="D1296"/>
-      <c r="E1296"/>
-    </row>
-    <row r="1297" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1297"/>
-      <c r="B1297"/>
-      <c r="C1297"/>
-      <c r="D1297"/>
-      <c r="E1297"/>
-    </row>
-    <row r="1298" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1298"/>
-      <c r="B1298"/>
-      <c r="C1298"/>
-      <c r="D1298"/>
-      <c r="E1298"/>
-    </row>
-    <row r="1299" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1299"/>
-      <c r="B1299"/>
-      <c r="C1299"/>
-      <c r="D1299"/>
-      <c r="E1299"/>
-    </row>
-    <row r="1300" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1300"/>
-      <c r="B1300"/>
-      <c r="C1300"/>
-      <c r="D1300"/>
-      <c r="E1300"/>
-    </row>
-    <row r="1301" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1301"/>
-      <c r="B1301"/>
-      <c r="C1301"/>
-      <c r="D1301"/>
-      <c r="E1301"/>
-    </row>
-    <row r="1302" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1302"/>
-      <c r="B1302"/>
-      <c r="C1302"/>
-      <c r="D1302"/>
-      <c r="E1302"/>
-    </row>
-    <row r="1303" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1303"/>
-      <c r="B1303"/>
-      <c r="C1303"/>
-      <c r="D1303"/>
-      <c r="E1303"/>
-    </row>
-    <row r="1304" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1304"/>
-      <c r="B1304"/>
-      <c r="C1304"/>
-      <c r="D1304"/>
-      <c r="E1304"/>
-    </row>
-    <row r="1305" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1305"/>
-      <c r="B1305"/>
-      <c r="C1305"/>
-      <c r="D1305"/>
-      <c r="E1305"/>
-    </row>
-    <row r="1306" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1306"/>
-      <c r="B1306"/>
-      <c r="C1306"/>
-      <c r="D1306"/>
-      <c r="E1306"/>
-    </row>
-    <row r="1307" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1307"/>
-      <c r="B1307"/>
-      <c r="C1307"/>
-      <c r="D1307"/>
-      <c r="E1307"/>
-    </row>
-    <row r="1308" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1308"/>
-      <c r="B1308"/>
-      <c r="C1308"/>
-      <c r="D1308"/>
-      <c r="E1308"/>
-    </row>
-    <row r="1309" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1309"/>
-      <c r="B1309"/>
-      <c r="C1309"/>
-      <c r="D1309"/>
-      <c r="E1309"/>
-    </row>
-    <row r="1310" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1310"/>
-      <c r="B1310"/>
-      <c r="C1310"/>
-      <c r="D1310"/>
-      <c r="E1310"/>
-    </row>
-    <row r="1311" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1311"/>
-      <c r="B1311"/>
-      <c r="C1311"/>
-      <c r="D1311"/>
-      <c r="E1311"/>
-    </row>
-    <row r="1312" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1312"/>
-      <c r="B1312"/>
-      <c r="C1312"/>
-      <c r="D1312"/>
-      <c r="E1312"/>
-    </row>
-    <row r="1313" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1313"/>
-      <c r="B1313"/>
-      <c r="C1313"/>
-      <c r="D1313"/>
-      <c r="E1313"/>
-    </row>
-    <row r="1314" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1314"/>
-      <c r="B1314"/>
-      <c r="C1314"/>
-      <c r="D1314"/>
-      <c r="E1314"/>
-    </row>
-    <row r="1315" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1315"/>
-      <c r="B1315"/>
-      <c r="C1315"/>
-      <c r="D1315"/>
-      <c r="E1315"/>
-    </row>
-    <row r="1316" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1316"/>
-      <c r="B1316"/>
-      <c r="C1316"/>
-      <c r="D1316"/>
-      <c r="E1316"/>
-    </row>
-    <row r="1317" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1317"/>
-      <c r="B1317"/>
-      <c r="C1317"/>
-      <c r="D1317"/>
-      <c r="E1317"/>
-    </row>
-    <row r="1318" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1318"/>
-      <c r="B1318"/>
-      <c r="C1318"/>
-      <c r="D1318"/>
-      <c r="E1318"/>
-    </row>
-    <row r="1319" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1319"/>
-      <c r="B1319"/>
-      <c r="C1319"/>
-      <c r="D1319"/>
-      <c r="E1319"/>
-    </row>
-    <row r="1320" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1320"/>
-      <c r="B1320"/>
-      <c r="C1320"/>
-      <c r="D1320"/>
-      <c r="E1320"/>
-    </row>
-    <row r="1321" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1321"/>
-      <c r="B1321"/>
-      <c r="C1321"/>
-      <c r="D1321"/>
-      <c r="E1321"/>
-    </row>
-    <row r="1322" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1322"/>
-      <c r="B1322"/>
-      <c r="C1322"/>
-      <c r="D1322"/>
-      <c r="E1322"/>
-    </row>
-    <row r="1323" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1323"/>
-      <c r="B1323"/>
-      <c r="C1323"/>
-      <c r="D1323"/>
-      <c r="E1323"/>
-    </row>
-    <row r="1324" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1324"/>
-      <c r="B1324"/>
-      <c r="C1324"/>
-      <c r="D1324"/>
-      <c r="E1324"/>
-    </row>
-    <row r="1325" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1325"/>
-      <c r="B1325"/>
-      <c r="C1325"/>
-      <c r="D1325"/>
-      <c r="E1325"/>
-    </row>
-    <row r="1326" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1326"/>
-      <c r="B1326"/>
-      <c r="C1326"/>
-      <c r="D1326"/>
-      <c r="E1326"/>
-    </row>
-    <row r="1327" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1327"/>
-      <c r="B1327"/>
-      <c r="C1327"/>
-      <c r="D1327"/>
-      <c r="E1327"/>
-    </row>
-    <row r="1328" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1328"/>
-      <c r="B1328"/>
-      <c r="C1328"/>
-      <c r="D1328"/>
-      <c r="E1328"/>
-    </row>
-    <row r="1329" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1329"/>
-      <c r="B1329"/>
-      <c r="C1329"/>
-      <c r="D1329"/>
-      <c r="E1329"/>
-    </row>
-    <row r="1330" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1330"/>
-      <c r="B1330"/>
-      <c r="C1330"/>
-      <c r="D1330"/>
-      <c r="E1330"/>
-    </row>
-    <row r="1331" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1331"/>
-      <c r="B1331"/>
-      <c r="C1331"/>
-      <c r="D1331"/>
-      <c r="E1331"/>
-    </row>
-    <row r="1332" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1332"/>
-      <c r="B1332"/>
-      <c r="C1332"/>
-      <c r="D1332"/>
-      <c r="E1332"/>
-    </row>
-    <row r="1333" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1333"/>
-      <c r="B1333"/>
-      <c r="C1333"/>
-      <c r="D1333"/>
-      <c r="E1333"/>
-    </row>
-    <row r="1334" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1334"/>
-      <c r="B1334"/>
-      <c r="C1334"/>
-      <c r="D1334"/>
-      <c r="E1334"/>
-    </row>
-    <row r="1335" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1335"/>
-      <c r="B1335"/>
-      <c r="C1335"/>
-      <c r="D1335"/>
-      <c r="E1335"/>
-    </row>
-    <row r="1336" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1336"/>
-      <c r="B1336"/>
-      <c r="C1336"/>
-      <c r="D1336"/>
-      <c r="E1336"/>
-    </row>
-    <row r="1337" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1337"/>
-      <c r="B1337"/>
-      <c r="C1337"/>
-      <c r="D1337"/>
-      <c r="E1337"/>
-    </row>
-    <row r="1338" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1338"/>
-      <c r="B1338"/>
-      <c r="C1338"/>
-      <c r="D1338"/>
-      <c r="E1338"/>
-    </row>
-    <row r="1339" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1339"/>
-      <c r="B1339"/>
-      <c r="C1339"/>
-      <c r="D1339"/>
-      <c r="E1339"/>
-    </row>
-    <row r="1340" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1340"/>
-      <c r="B1340"/>
-      <c r="C1340"/>
-      <c r="D1340"/>
-      <c r="E1340"/>
-    </row>
-    <row r="1341" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1341"/>
-      <c r="B1341"/>
-      <c r="C1341"/>
-      <c r="D1341"/>
-      <c r="E1341"/>
-    </row>
-    <row r="1342" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1342"/>
-      <c r="B1342"/>
-      <c r="C1342"/>
-      <c r="D1342"/>
-      <c r="E1342"/>
-    </row>
-    <row r="1343" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1343"/>
-      <c r="B1343"/>
-      <c r="C1343"/>
-      <c r="D1343"/>
-      <c r="E1343"/>
-    </row>
-    <row r="1344" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1344"/>
-      <c r="B1344"/>
-      <c r="C1344"/>
-      <c r="D1344"/>
-      <c r="E1344"/>
-    </row>
-    <row r="1345" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1345"/>
-      <c r="B1345"/>
-      <c r="C1345"/>
-      <c r="D1345"/>
-      <c r="E1345"/>
-    </row>
-    <row r="1346" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1346"/>
-      <c r="B1346"/>
-      <c r="C1346"/>
-      <c r="D1346"/>
-      <c r="E1346"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
